--- a/biology/Botanique/Teucrium_ramosissimum/Teucrium_ramosissimum.xlsx
+++ b/biology/Botanique/Teucrium_ramosissimum/Teucrium_ramosissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium ramosissimum est une plante endémique d'Afrique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette description est extraite de Quézel et Santa 1963, p. 791
 Port général : Plante des rochers calcaires verticaux.
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette liste de synonymes hétérotypiques est extraite de la Base de données des plantes d'Afrique (BDPA)                       (13 juillet 2013)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette liste de synonymes hétérotypiques est extraite de la Base de données des plantes d'Afrique (BDPA)                       (13 juillet 2013).
 Teucrium ramosissimum var. getulum (Maire) Quézel &amp; Santa
 Teucrium saxatile var. getulum Maire (1916)
 Teucrium saxatile auct. Afr. N non Lam.</t>
@@ -577,9 +593,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce, endémique d'Afrique du Nord (Base de données des plantes d'Afrique (BDPA)                       (13 juillet 2013)[2]), est présente :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce, endémique d'Afrique du Nord (Base de données des plantes d'Afrique (BDPA)                       (13 juillet 2013)), est présente :
 en Tunisie, dans le Djebel Bou Hedma, le Djebel Sned (Pottier-Alapetite 1981, p. 772) et le Djebel Orbata près de Gafsa (Ben Sghaier et al. 2012, p. 3819) ;
 en Algérie, près des frontières (Quézel et Santa 1963, p. 791) ;
 au Maroc.</t>
@@ -610,7 +628,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la région de Gafsa, cette plante, appelée Hachichat Belkacem Ben Salem, est employée contre les ulcères de l'estomac et pour favoriser la cicatrisation des plaies (Ben Sghaier et al. 2012, p. 3819).
 Des extraits de cette plante contiennent des composés antioxidants et cytotoxiques pouvant être intéressant en chimiothérapie (Ben Sghaier et al. 2012, p. 3824).
